--- a/biology/Botanique/Aralie/Aralie.xlsx
+++ b/biology/Botanique/Aralie/Aralie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aralia
 Le genre Aralia (les aralies) regroupe des plantes herbacées vivaces et des arbustes caducifoliés de la famille des Araliaceae, originaires de l'hémisphère nord (Asie, Amérique du Nord). L'espèce Aralia cordata est consommée au Japon sous le nom de udo (feuille et pétioles consommés en légume cuit).
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aralia, en français aralie, est le nom canadien sous lequel la première espèce de ces arbustes (Aralia nudicaulis) fut envoyée de Québec à Guy-Crescent Fagon, directeur du Jardin du roi. Le naturaliste König écarte l’hypothèse d’une origine canadienne, l'origine de ce terme restant inconnue[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aralia, en français aralie, est le nom canadien sous lequel la première espèce de ces arbustes (Aralia nudicaulis) fut envoyée de Québec à Guy-Crescent Fagon, directeur du Jardin du roi. Le naturaliste König écarte l’hypothèse d’une origine canadienne, l'origine de ce terme restant inconnue.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces du genre Aralia sont de petits arbres ou arbustes, épineux ou non, ou bien des plantes herbacées rhizomateuses.
 Les feuilles sont composées 1-3 pennées, à rachis articulé, avec de 3 à 30 folioles, à marges entières à dentées, serrulées, ou ondulées, avec des stipules connées avec les pétioles à la base.
@@ -578,7 +594,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La circonscription du genre Aralia a changé au cours des siècles. Les espèces d'abord incluses dans une interprétation large du genre Aralia sont maintenant incluses dans les genres Fatsia, Macropanax, Oreopanax, Panax, Polyscias, Pseudopanax, Schefflera, and Tetrapanax.
 </t>
@@ -609,9 +627,11 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En date de mai 2021, Plants of the World Online liste dans ce genre les espèces suivantes[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En date de mai 2021, Plants of the World Online liste dans ce genre les espèces suivantes :
 Aralia apioides Hand.-Mazz.
 Aralia armata (Wall. ex G.Don) Seem.
 Aralia atropurpurea Franch.
@@ -713,7 +733,9 @@
           <t>Récapitulatif</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Comparaison entre trois genres proches d’Araliaceae.
 </t>
